--- a/DataSet_industrial_safety_and_health_database_with_accidents_description.xlsx
+++ b/DataSet_industrial_safety_and_health_database_with_accidents_description.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\projs\GLCapstoneProject\GL_NLP1_Group2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDB330-E256-46D9-B899-EF31CF1ACC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data Set - industrial_safety_an" sheetId="1" r:id="rId4"/>
+    <sheet name="Data Set - industrial_safety_an" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Set - industrial_safety_an'!$A$1:$K$426</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1463,18 +1475,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1485,39 +1498,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1707,20 +1725,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K426"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K156" sqref="K156"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,12 +1776,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>42370.0</v>
+        <v>42370</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1787,12 +1811,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>42371.0</v>
+        <v>42371</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -1822,12 +1846,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>42375.0</v>
+        <v>42375</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1857,12 +1881,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>42377.0</v>
+        <v>42377</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1892,12 +1916,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>42379.0</v>
+        <v>42379</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1927,12 +1951,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>42381.0</v>
+        <v>42381</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -1962,12 +1986,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>42385.0</v>
+        <v>42385</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -1997,12 +2021,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>42386.0</v>
+        <v>42386</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -2032,12 +2056,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>42388.0</v>
+        <v>42388</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -2067,12 +2091,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>42395.0</v>
+        <v>42395</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -2102,12 +2126,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>42397.0</v>
+        <v>42397</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -2137,12 +2161,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>42399.0</v>
+        <v>42399</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -2172,12 +2196,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>42401.0</v>
+        <v>42401</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -2207,12 +2231,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>42402.0</v>
+        <v>42402</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -2242,12 +2266,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>42404.0</v>
+        <v>42404</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
@@ -2277,12 +2301,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>42404.0</v>
+        <v>42404</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
@@ -2312,12 +2336,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>42406.0</v>
+        <v>42406</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -2347,12 +2371,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>42407.0</v>
+        <v>42407</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -2382,12 +2406,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>42408.0</v>
+        <v>42408</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -2417,12 +2441,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>42421.0</v>
+        <v>42421</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -2452,12 +2476,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>42425.0</v>
+        <v>42425</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -2487,12 +2511,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>42409.0</v>
+        <v>42409</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -2522,12 +2546,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>42410.0</v>
+        <v>42410</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -2557,12 +2581,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>42415.0</v>
+        <v>42415</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>19</v>
@@ -2592,12 +2616,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>42414.0</v>
+        <v>42414</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -2627,12 +2651,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>42415.0</v>
+        <v>42415</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -2662,12 +2686,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>42413.0</v>
+        <v>42413</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -2697,12 +2721,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>42415.0</v>
+        <v>42415</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -2732,12 +2756,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>42416.0</v>
+        <v>42416</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -2767,12 +2791,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>42416.0</v>
+        <v>42416</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>19</v>
@@ -2802,12 +2826,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>42417.0</v>
+        <v>42417</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -2837,12 +2861,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>42419.0</v>
+        <v>42419</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -2872,12 +2896,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>42421.0</v>
+        <v>42421</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -2907,12 +2931,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>42420.0</v>
+        <v>42420</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -2942,12 +2966,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>42415.0</v>
+        <v>42415</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>19</v>
@@ -2977,12 +3001,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>42418.0</v>
+        <v>42418</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>19</v>
@@ -3012,12 +3036,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>42422.0</v>
+        <v>42422</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -3047,12 +3071,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>42424.0</v>
+        <v>42424</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>19</v>
@@ -3082,12 +3106,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>42424.0</v>
+        <v>42424</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>19</v>
@@ -3117,12 +3141,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>42424.0</v>
+        <v>42424</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -3152,12 +3176,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>42429.0</v>
+        <v>42429</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
@@ -3187,12 +3211,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>42426.0</v>
+        <v>42426</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -3222,12 +3246,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2">
-        <v>42427.0</v>
+        <v>42427</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -3257,12 +3281,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>42431.0</v>
+        <v>42431</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>19</v>
@@ -3292,12 +3316,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>42431.0</v>
+        <v>42431</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -3327,12 +3351,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>42432.0</v>
+        <v>42432</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
@@ -3362,12 +3386,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2">
-        <v>42433.0</v>
+        <v>42433</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
@@ -3397,12 +3421,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>42434.0</v>
+        <v>42434</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>10</v>
@@ -3432,12 +3456,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>42435.0</v>
+        <v>42435</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>10</v>
@@ -3467,12 +3491,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>42435.0</v>
+        <v>42435</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>10</v>
@@ -3502,12 +3526,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2">
-        <v>42438.0</v>
+        <v>42438</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -3537,12 +3561,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2">
-        <v>42440.0</v>
+        <v>42440</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
@@ -3572,12 +3596,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2">
-        <v>42440.0</v>
+        <v>42440</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
@@ -3607,12 +3631,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
-        <v>42442.0</v>
+        <v>42442</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
@@ -3642,12 +3666,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2">
-        <v>42441.0</v>
+        <v>42441</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>19</v>
@@ -3677,12 +3701,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2">
-        <v>42443.0</v>
+        <v>42443</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>10</v>
@@ -3712,12 +3736,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2">
-        <v>42442.0</v>
+        <v>42442</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
@@ -3747,12 +3771,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2">
-        <v>42445.0</v>
+        <v>42445</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -3782,12 +3806,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2">
-        <v>42439.0</v>
+        <v>42439</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>19</v>
@@ -3817,12 +3841,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2">
-        <v>42446.0</v>
+        <v>42446</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
@@ -3852,12 +3876,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2">
-        <v>42445.0</v>
+        <v>42445</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>19</v>
@@ -3887,12 +3911,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2">
-        <v>42447.0</v>
+        <v>42447</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>10</v>
@@ -3922,12 +3946,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2">
-        <v>42448.0</v>
+        <v>42448</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>10</v>
@@ -3957,12 +3981,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2">
-        <v>42443.0</v>
+        <v>42443</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>19</v>
@@ -3992,12 +4016,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2">
-        <v>42447.0</v>
+        <v>42447</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>19</v>
@@ -4027,12 +4051,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2">
-        <v>42447.0</v>
+        <v>42447</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>19</v>
@@ -4062,12 +4086,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2">
-        <v>42451.0</v>
+        <v>42451</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
@@ -4097,12 +4121,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2">
-        <v>42451.0</v>
+        <v>42451</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>10</v>
@@ -4132,12 +4156,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2">
-        <v>42454.0</v>
+        <v>42454</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
@@ -4167,12 +4191,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2">
-        <v>42459.0</v>
+        <v>42459</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>10</v>
@@ -4202,12 +4226,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2">
-        <v>42459.0</v>
+        <v>42459</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>10</v>
@@ -4237,12 +4261,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2">
-        <v>42460.0</v>
+        <v>42460</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
@@ -4272,12 +4296,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2">
-        <v>42460.0</v>
+        <v>42460</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>19</v>
@@ -4307,12 +4331,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2">
-        <v>42461.0</v>
+        <v>42461</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
@@ -4342,12 +4366,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2">
-        <v>42463.0</v>
+        <v>42463</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
@@ -4377,12 +4401,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2">
-        <v>42462.0</v>
+        <v>42462</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>10</v>
@@ -4412,12 +4436,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2">
-        <v>42461.0</v>
+        <v>42461</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>10</v>
@@ -4447,12 +4471,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2">
-        <v>42461.0</v>
+        <v>42461</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>10</v>
@@ -4482,12 +4506,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2">
-        <v>42439.0</v>
+        <v>42439</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>120</v>
@@ -4517,12 +4541,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2">
-        <v>42453.0</v>
+        <v>42453</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>120</v>
@@ -4552,12 +4576,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2">
-        <v>42451.0</v>
+        <v>42451</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>120</v>
@@ -4587,12 +4611,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2">
-        <v>42460.0</v>
+        <v>42460</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>10</v>
@@ -4622,12 +4646,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2">
-        <v>42464.0</v>
+        <v>42464</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>19</v>
@@ -4657,12 +4681,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2">
-        <v>42465.0</v>
+        <v>42465</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
@@ -4692,12 +4716,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2">
-        <v>42465.0</v>
+        <v>42465</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>19</v>
@@ -4727,12 +4751,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2">
-        <v>42467.0</v>
+        <v>42467</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>10</v>
@@ -4762,12 +4786,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2">
-        <v>42468.0</v>
+        <v>42468</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
@@ -4797,12 +4821,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2">
-        <v>42471.0</v>
+        <v>42471</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>10</v>
@@ -4832,12 +4856,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2">
-        <v>42471.0</v>
+        <v>42471</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
@@ -4867,12 +4891,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2">
-        <v>42474.0</v>
+        <v>42474</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>19</v>
@@ -4902,12 +4926,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2">
-        <v>42474.0</v>
+        <v>42474</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>10</v>
@@ -4937,12 +4961,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2">
-        <v>42476.0</v>
+        <v>42476</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>10</v>
@@ -4972,12 +4996,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2">
-        <v>42476.0</v>
+        <v>42476</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>10</v>
@@ -5007,12 +5031,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2">
-        <v>42475.0</v>
+        <v>42475</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>10</v>
@@ -5042,12 +5066,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2">
-        <v>42477.0</v>
+        <v>42477</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>19</v>
@@ -5077,12 +5101,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2">
-        <v>42478.0</v>
+        <v>42478</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>10</v>
@@ -5112,12 +5136,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2">
-        <v>42481.0</v>
+        <v>42481</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>19</v>
@@ -5147,12 +5171,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2">
-        <v>42482.0</v>
+        <v>42482</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>10</v>
@@ -5182,12 +5206,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2">
-        <v>42483.0</v>
+        <v>42483</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>10</v>
@@ -5217,12 +5241,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2">
-        <v>42482.0</v>
+        <v>42482</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>19</v>
@@ -5252,12 +5276,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2">
-        <v>42486.0</v>
+        <v>42486</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>19</v>
@@ -5287,12 +5311,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2">
-        <v>42488.0</v>
+        <v>42488</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>19</v>
@@ -5322,12 +5346,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2">
-        <v>42489.0</v>
+        <v>42489</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>10</v>
@@ -5357,12 +5381,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2">
-        <v>42490.0</v>
+        <v>42490</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>19</v>
@@ -5392,12 +5416,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2">
-        <v>42490.0</v>
+        <v>42490</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>10</v>
@@ -5427,12 +5451,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2">
-        <v>42490.0</v>
+        <v>42490</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>10</v>
@@ -5462,12 +5486,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>10</v>
@@ -5497,12 +5521,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2">
-        <v>42492.0</v>
+        <v>42492</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>19</v>
@@ -5532,12 +5556,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2">
-        <v>42494.0</v>
+        <v>42494</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>120</v>
@@ -5567,12 +5591,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2">
-        <v>42493.0</v>
+        <v>42493</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>10</v>
@@ -5602,12 +5626,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2">
-        <v>42494.0</v>
+        <v>42494</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>10</v>
@@ -5637,12 +5661,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2">
-        <v>42494.0</v>
+        <v>42494</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>19</v>
@@ -5672,12 +5696,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2">
-        <v>42494.0</v>
+        <v>42494</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>19</v>
@@ -5707,12 +5731,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2">
-        <v>42495.0</v>
+        <v>42495</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>19</v>
@@ -5742,12 +5766,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2">
-        <v>42495.0</v>
+        <v>42495</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>19</v>
@@ -5777,12 +5801,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2">
-        <v>42501.0</v>
+        <v>42501</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>10</v>
@@ -5812,12 +5836,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2">
-        <v>42502.0</v>
+        <v>42502</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>10</v>
@@ -5847,12 +5871,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2">
-        <v>42501.0</v>
+        <v>42501</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>10</v>
@@ -5882,12 +5906,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2">
-        <v>42504.0</v>
+        <v>42504</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>10</v>
@@ -5917,12 +5941,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2">
-        <v>42507.0</v>
+        <v>42507</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>10</v>
@@ -5952,12 +5976,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2">
-        <v>42509.0</v>
+        <v>42509</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>10</v>
@@ -5987,12 +6011,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2">
-        <v>42508.0</v>
+        <v>42508</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>19</v>
@@ -6022,12 +6046,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2">
-        <v>42512.0</v>
+        <v>42512</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>19</v>
@@ -6057,12 +6081,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2">
-        <v>42510.0</v>
+        <v>42510</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>10</v>
@@ -6092,12 +6116,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2">
-        <v>42512.0</v>
+        <v>42512</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>10</v>
@@ -6127,12 +6151,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2">
-        <v>42514.0</v>
+        <v>42514</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>120</v>
@@ -6162,12 +6186,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2">
-        <v>42502.0</v>
+        <v>42502</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>10</v>
@@ -6197,12 +6221,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2">
-        <v>42515.0</v>
+        <v>42515</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>10</v>
@@ -6232,12 +6256,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2">
-        <v>42517.0</v>
+        <v>42517</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>19</v>
@@ -6267,12 +6291,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B131" s="2">
-        <v>42515.0</v>
+        <v>42515</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>120</v>
@@ -6302,12 +6326,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2">
-        <v>42516.0</v>
+        <v>42516</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>120</v>
@@ -6337,12 +6361,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2">
-        <v>42516.0</v>
+        <v>42516</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>120</v>
@@ -6372,12 +6396,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2">
-        <v>42522.0</v>
+        <v>42522</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>19</v>
@@ -6407,12 +6431,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2">
-        <v>42523.0</v>
+        <v>42523</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>19</v>
@@ -6442,12 +6466,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2">
-        <v>42524.0</v>
+        <v>42524</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>10</v>
@@ -6477,12 +6501,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2">
-        <v>42525.0</v>
+        <v>42525</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>10</v>
@@ -6512,12 +6536,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2">
-        <v>42524.0</v>
+        <v>42524</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>120</v>
@@ -6547,12 +6571,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2">
-        <v>42526.0</v>
+        <v>42526</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>10</v>
@@ -6582,12 +6606,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2">
-        <v>42526.0</v>
+        <v>42526</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>10</v>
@@ -6617,12 +6641,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2">
-        <v>42529.0</v>
+        <v>42529</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>10</v>
@@ -6652,12 +6676,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2">
-        <v>42528.0</v>
+        <v>42528</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>10</v>
@@ -6687,12 +6711,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2">
-        <v>42528.0</v>
+        <v>42528</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>10</v>
@@ -6722,12 +6746,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2">
-        <v>42529.0</v>
+        <v>42529</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>10</v>
@@ -6757,12 +6781,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B145" s="2">
-        <v>42529.0</v>
+        <v>42529</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>120</v>
@@ -6792,12 +6816,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2">
-        <v>42529.0</v>
+        <v>42529</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>120</v>
@@ -6827,12 +6851,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B147" s="2">
-        <v>42531.0</v>
+        <v>42531</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>19</v>
@@ -6862,12 +6886,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2">
-        <v>42534.0</v>
+        <v>42534</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>10</v>
@@ -6897,12 +6921,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B149" s="2">
-        <v>42537.0</v>
+        <v>42537</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>10</v>
@@ -6932,12 +6956,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2">
-        <v>42537.0</v>
+        <v>42537</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>120</v>
@@ -6967,12 +6991,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B151" s="2">
-        <v>42537.0</v>
+        <v>42537</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>120</v>
@@ -7002,12 +7026,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2">
-        <v>42537.0</v>
+        <v>42537</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>120</v>
@@ -7037,12 +7061,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B153" s="2">
-        <v>42537.0</v>
+        <v>42537</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>120</v>
@@ -7072,12 +7096,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B154" s="2">
-        <v>42539.0</v>
+        <v>42539</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>120</v>
@@ -7107,12 +7131,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B155" s="2">
-        <v>42539.0</v>
+        <v>42539</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>120</v>
@@ -7142,12 +7166,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B156" s="2">
-        <v>42538.0</v>
+        <v>42538</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>19</v>
@@ -7177,12 +7201,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B157" s="2">
-        <v>42540.0</v>
+        <v>42540</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>10</v>
@@ -7212,12 +7236,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B158" s="2">
-        <v>42542.0</v>
+        <v>42542</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>10</v>
@@ -7247,12 +7271,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B159" s="2">
-        <v>42543.0</v>
+        <v>42543</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>10</v>
@@ -7282,12 +7306,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B160" s="2">
-        <v>42544.0</v>
+        <v>42544</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>19</v>
@@ -7317,12 +7341,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B161" s="2">
-        <v>42545.0</v>
+        <v>42545</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>10</v>
@@ -7352,12 +7376,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B162" s="2">
-        <v>42545.0</v>
+        <v>42545</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>10</v>
@@ -7387,12 +7411,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B163" s="2">
-        <v>42550.0</v>
+        <v>42550</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>10</v>
@@ -7422,12 +7446,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2">
-        <v>42553.0</v>
+        <v>42553</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>10</v>
@@ -7457,12 +7481,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B165" s="2">
-        <v>42555.0</v>
+        <v>42555</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>10</v>
@@ -7492,12 +7516,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B166" s="2">
-        <v>42545.0</v>
+        <v>42545</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>10</v>
@@ -7527,12 +7551,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B167" s="2">
-        <v>42559.0</v>
+        <v>42559</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>10</v>
@@ -7562,12 +7586,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B168" s="2">
-        <v>42558.0</v>
+        <v>42558</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>10</v>
@@ -7597,12 +7621,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B169" s="2">
-        <v>42558.0</v>
+        <v>42558</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>10</v>
@@ -7632,12 +7656,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2">
-        <v>42559.0</v>
+        <v>42559</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>10</v>
@@ -7667,12 +7691,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B171" s="2">
-        <v>42560.0</v>
+        <v>42560</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>120</v>
@@ -7702,12 +7726,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B172" s="2">
-        <v>42561.0</v>
+        <v>42561</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>10</v>
@@ -7737,12 +7761,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B173" s="2">
-        <v>42562.0</v>
+        <v>42562</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>19</v>
@@ -7772,12 +7796,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B174" s="2">
-        <v>42565.0</v>
+        <v>42565</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>10</v>
@@ -7807,12 +7831,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B175" s="2">
-        <v>42566.0</v>
+        <v>42566</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>19</v>
@@ -7842,12 +7866,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B176" s="2">
-        <v>42567.0</v>
+        <v>42567</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>10</v>
@@ -7877,12 +7901,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B177" s="2">
-        <v>42569.0</v>
+        <v>42569</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>10</v>
@@ -7912,12 +7936,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B178" s="2">
-        <v>42571.0</v>
+        <v>42571</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>19</v>
@@ -7947,12 +7971,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B179" s="2">
-        <v>42572.0</v>
+        <v>42572</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>19</v>
@@ -7982,12 +8006,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B180" s="2">
-        <v>42574.0</v>
+        <v>42574</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>19</v>
@@ -8017,12 +8041,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B181" s="2">
-        <v>42578.0</v>
+        <v>42578</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>10</v>
@@ -8052,12 +8076,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B182" s="2">
-        <v>42580.0</v>
+        <v>42580</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>10</v>
@@ -8087,12 +8111,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B183" s="2">
-        <v>42581.0</v>
+        <v>42581</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>19</v>
@@ -8122,12 +8146,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B184" s="2">
-        <v>42584.0</v>
+        <v>42584</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>19</v>
@@ -8157,12 +8181,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B185" s="2">
-        <v>42583.0</v>
+        <v>42583</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>19</v>
@@ -8192,12 +8216,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B186" s="2">
-        <v>42584.0</v>
+        <v>42584</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>120</v>
@@ -8227,12 +8251,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B187" s="2">
-        <v>42583.0</v>
+        <v>42583</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>10</v>
@@ -8262,12 +8286,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B188" s="2">
-        <v>42586.0</v>
+        <v>42586</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>19</v>
@@ -8297,12 +8321,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B189" s="2">
-        <v>42593.0</v>
+        <v>42593</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>19</v>
@@ -8332,12 +8356,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B190" s="2">
-        <v>42593.0</v>
+        <v>42593</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>19</v>
@@ -8367,12 +8391,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B191" s="2">
-        <v>42594.0</v>
+        <v>42594</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>10</v>
@@ -8402,12 +8426,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B192" s="2">
-        <v>42596.0</v>
+        <v>42596</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>10</v>
@@ -8437,12 +8461,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B193" s="2">
-        <v>42596.0</v>
+        <v>42596</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>19</v>
@@ -8472,12 +8496,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B194" s="2">
-        <v>42597.0</v>
+        <v>42597</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>10</v>
@@ -8507,12 +8531,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B195" s="2">
-        <v>42600.0</v>
+        <v>42600</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>10</v>
@@ -8542,12 +8566,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B196" s="2">
-        <v>42601.0</v>
+        <v>42601</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>10</v>
@@ -8577,12 +8601,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B197" s="2">
-        <v>42604.0</v>
+        <v>42604</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>19</v>
@@ -8612,12 +8636,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B198" s="2">
-        <v>42606.0</v>
+        <v>42606</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>19</v>
@@ -8647,12 +8671,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B199" s="2">
-        <v>42607.0</v>
+        <v>42607</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>10</v>
@@ -8682,12 +8706,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B200" s="2">
-        <v>42606.0</v>
+        <v>42606</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>10</v>
@@ -8717,12 +8741,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B201" s="2">
-        <v>42611.0</v>
+        <v>42611</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>19</v>
@@ -8752,12 +8776,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B202" s="2">
-        <v>42609.0</v>
+        <v>42609</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>10</v>
@@ -8787,12 +8811,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B203" s="2">
-        <v>42612.0</v>
+        <v>42612</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>19</v>
@@ -8822,12 +8846,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B204" s="2">
-        <v>42612.0</v>
+        <v>42612</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>10</v>
@@ -8857,12 +8881,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B205" s="2">
-        <v>42614.0</v>
+        <v>42614</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>19</v>
@@ -8892,12 +8916,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B206" s="2">
-        <v>42615.0</v>
+        <v>42615</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>10</v>
@@ -8927,12 +8951,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B207" s="2">
-        <v>42617.0</v>
+        <v>42617</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>10</v>
@@ -8962,12 +8986,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B208" s="2">
-        <v>42616.0</v>
+        <v>42616</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>10</v>
@@ -8997,12 +9021,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B209" s="2">
-        <v>42617.0</v>
+        <v>42617</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>10</v>
@@ -9032,12 +9056,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B210" s="2">
-        <v>42619.0</v>
+        <v>42619</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>19</v>
@@ -9067,12 +9091,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B211" s="2">
-        <v>42618.0</v>
+        <v>42618</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>19</v>
@@ -9102,12 +9126,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B212" s="2">
-        <v>42619.0</v>
+        <v>42619</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>19</v>
@@ -9137,12 +9161,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B213" s="2">
-        <v>42626.0</v>
+        <v>42626</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>10</v>
@@ -9172,12 +9196,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B214" s="2">
-        <v>42625.0</v>
+        <v>42625</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>10</v>
@@ -9207,12 +9231,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B215" s="2">
-        <v>42626.0</v>
+        <v>42626</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>19</v>
@@ -9242,12 +9266,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B216" s="2">
-        <v>42628.0</v>
+        <v>42628</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>120</v>
@@ -9277,12 +9301,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B217" s="2">
-        <v>42630.0</v>
+        <v>42630</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>10</v>
@@ -9312,12 +9336,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B218" s="2">
-        <v>42629.0</v>
+        <v>42629</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>19</v>
@@ -9347,12 +9371,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B219" s="2">
-        <v>42633.0</v>
+        <v>42633</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>120</v>
@@ -9382,12 +9406,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B220" s="2">
-        <v>42633.0</v>
+        <v>42633</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>19</v>
@@ -9417,12 +9441,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B221" s="2">
-        <v>42633.0</v>
+        <v>42633</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>10</v>
@@ -9452,12 +9476,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B222" s="2">
-        <v>42634.0</v>
+        <v>42634</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>10</v>
@@ -9487,12 +9511,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B223" s="2">
-        <v>42634.0</v>
+        <v>42634</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>19</v>
@@ -9522,12 +9546,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B224" s="2">
-        <v>42635.0</v>
+        <v>42635</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>10</v>
@@ -9557,12 +9581,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B225" s="2">
-        <v>42635.0</v>
+        <v>42635</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>10</v>
@@ -9592,12 +9616,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B226" s="2">
-        <v>42640.0</v>
+        <v>42640</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>10</v>
@@ -9627,12 +9651,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B227" s="2">
-        <v>42642.0</v>
+        <v>42642</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>10</v>
@@ -9662,12 +9686,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B228" s="2">
-        <v>42643.0</v>
+        <v>42643</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>10</v>
@@ -9697,12 +9721,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B229" s="2">
-        <v>42644.0</v>
+        <v>42644</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>10</v>
@@ -9732,12 +9756,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B230" s="2">
-        <v>42646.0</v>
+        <v>42646</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>10</v>
@@ -9767,12 +9791,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B231" s="2">
-        <v>42646.0</v>
+        <v>42646</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>19</v>
@@ -9802,12 +9826,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B232" s="2">
-        <v>42646.0</v>
+        <v>42646</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>19</v>
@@ -9837,12 +9861,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B233" s="2">
-        <v>42646.0</v>
+        <v>42646</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>10</v>
@@ -9872,12 +9896,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B234" s="2">
-        <v>42647.0</v>
+        <v>42647</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>120</v>
@@ -9907,12 +9931,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B235" s="2">
-        <v>42651.0</v>
+        <v>42651</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>10</v>
@@ -9942,12 +9966,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B236" s="2">
-        <v>42653.0</v>
+        <v>42653</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>10</v>
@@ -9977,12 +10001,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B237" s="2">
-        <v>42653.0</v>
+        <v>42653</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>10</v>
@@ -10012,12 +10036,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B238" s="2">
-        <v>42654.0</v>
+        <v>42654</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>19</v>
@@ -10047,12 +10071,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B239" s="2">
-        <v>42656.0</v>
+        <v>42656</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>19</v>
@@ -10082,12 +10106,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B240" s="2">
-        <v>42656.0</v>
+        <v>42656</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>10</v>
@@ -10117,12 +10141,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B241" s="2">
-        <v>42661.0</v>
+        <v>42661</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>10</v>
@@ -10152,12 +10176,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B242" s="2">
-        <v>42661.0</v>
+        <v>42661</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>10</v>
@@ -10187,12 +10211,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B243" s="2">
-        <v>42663.0</v>
+        <v>42663</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>19</v>
@@ -10222,12 +10246,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B244" s="2">
-        <v>42666.0</v>
+        <v>42666</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>19</v>
@@ -10257,12 +10281,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B245" s="2">
-        <v>42667.0</v>
+        <v>42667</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>10</v>
@@ -10292,12 +10316,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B246" s="2">
-        <v>42669.0</v>
+        <v>42669</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>10</v>
@@ -10327,12 +10351,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B247" s="2">
-        <v>42670.0</v>
+        <v>42670</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>10</v>
@@ -10362,12 +10386,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B248" s="2">
-        <v>42672.0</v>
+        <v>42672</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>10</v>
@@ -10397,12 +10421,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B249" s="2">
-        <v>42672.0</v>
+        <v>42672</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>19</v>
@@ -10432,12 +10456,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B250" s="2">
-        <v>42678.0</v>
+        <v>42678</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>10</v>
@@ -10467,12 +10491,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B251" s="2">
-        <v>42682.0</v>
+        <v>42682</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>10</v>
@@ -10502,12 +10526,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B252" s="2">
-        <v>42682.0</v>
+        <v>42682</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>19</v>
@@ -10537,12 +10561,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B253" s="2">
-        <v>42685.0</v>
+        <v>42685</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>10</v>
@@ -10572,12 +10596,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B254" s="2">
-        <v>42687.0</v>
+        <v>42687</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>10</v>
@@ -10607,12 +10631,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B255" s="2">
-        <v>42693.0</v>
+        <v>42693</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>10</v>
@@ -10642,12 +10666,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B256" s="2">
-        <v>42695.0</v>
+        <v>42695</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>120</v>
@@ -10677,12 +10701,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B257" s="2">
-        <v>42697.0</v>
+        <v>42697</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>10</v>
@@ -10712,12 +10736,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B258" s="2">
-        <v>42697.0</v>
+        <v>42697</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>10</v>
@@ -10747,12 +10771,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B259" s="2">
-        <v>42699.0</v>
+        <v>42699</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>19</v>
@@ -10782,12 +10806,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B260" s="2">
-        <v>42702.0</v>
+        <v>42702</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>10</v>
@@ -10817,12 +10841,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B261" s="2">
-        <v>42703.0</v>
+        <v>42703</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>19</v>
@@ -10852,12 +10876,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B262" s="2">
-        <v>42704.0</v>
+        <v>42704</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>10</v>
@@ -10887,12 +10911,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B263" s="2">
-        <v>42705.0</v>
+        <v>42705</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>10</v>
@@ -10922,12 +10946,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B264" s="2">
-        <v>42705.0</v>
+        <v>42705</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>10</v>
@@ -10957,12 +10981,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B265" s="2">
-        <v>42705.0</v>
+        <v>42705</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>10</v>
@@ -10992,12 +11016,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B266" s="2">
-        <v>42712.0</v>
+        <v>42712</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>10</v>
@@ -11027,12 +11051,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B267" s="2">
-        <v>42712.0</v>
+        <v>42712</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>10</v>
@@ -11062,12 +11086,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B268" s="2">
-        <v>42713.0</v>
+        <v>42713</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>19</v>
@@ -11097,12 +11121,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B269" s="2">
-        <v>42714.0</v>
+        <v>42714</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>10</v>
@@ -11132,12 +11156,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B270" s="2">
-        <v>42716.0</v>
+        <v>42716</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>19</v>
@@ -11167,12 +11191,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B271" s="2">
-        <v>42717.0</v>
+        <v>42717</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>19</v>
@@ -11202,12 +11226,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B272" s="2">
-        <v>42716.0</v>
+        <v>42716</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>10</v>
@@ -11237,12 +11261,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B273" s="2">
-        <v>42716.0</v>
+        <v>42716</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>19</v>
@@ -11272,12 +11296,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B274" s="2">
-        <v>42717.0</v>
+        <v>42717</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>10</v>
@@ -11307,12 +11331,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B275" s="2">
-        <v>42719.0</v>
+        <v>42719</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>19</v>
@@ -11342,12 +11366,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B276" s="2">
-        <v>42719.0</v>
+        <v>42719</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>10</v>
@@ -11377,12 +11401,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B277" s="2">
-        <v>42720.0</v>
+        <v>42720</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>19</v>
@@ -11412,12 +11436,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B278" s="2">
-        <v>42723.0</v>
+        <v>42723</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>10</v>
@@ -11447,12 +11471,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B279" s="2">
-        <v>42727.0</v>
+        <v>42727</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>10</v>
@@ -11482,12 +11506,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B280" s="2">
-        <v>42726.0</v>
+        <v>42726</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>19</v>
@@ -11517,12 +11541,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B281" s="2">
-        <v>42726.0</v>
+        <v>42726</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>10</v>
@@ -11552,12 +11576,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B282" s="2">
-        <v>42727.0</v>
+        <v>42727</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>10</v>
@@ -11587,12 +11611,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B283" s="2">
-        <v>42730.0</v>
+        <v>42730</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>10</v>
@@ -11622,12 +11646,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B284" s="2">
-        <v>42732.0</v>
+        <v>42732</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>19</v>
@@ -11657,12 +11681,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B285" s="2">
-        <v>42734.0</v>
+        <v>42734</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>10</v>
@@ -11692,12 +11716,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B286" s="2">
-        <v>42735.0</v>
+        <v>42735</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>10</v>
@@ -11727,12 +11751,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B287" s="2">
-        <v>42737.0</v>
+        <v>42737</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>10</v>
@@ -11762,12 +11786,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B288" s="2">
-        <v>42740.0</v>
+        <v>42740</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>10</v>
@@ -11797,12 +11821,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B289" s="2">
-        <v>42740.0</v>
+        <v>42740</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>10</v>
@@ -11832,12 +11856,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B290" s="2">
-        <v>42741.0</v>
+        <v>42741</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>19</v>
@@ -11867,12 +11891,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B291" s="2">
-        <v>42742.0</v>
+        <v>42742</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>10</v>
@@ -11902,12 +11926,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B292" s="2">
-        <v>42743.0</v>
+        <v>42743</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>10</v>
@@ -11937,12 +11961,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B293" s="2">
-        <v>42743.0</v>
+        <v>42743</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>19</v>
@@ -11972,12 +11996,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B294" s="2">
-        <v>42744.0</v>
+        <v>42744</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>10</v>
@@ -12007,12 +12031,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B295" s="2">
-        <v>42744.0</v>
+        <v>42744</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>10</v>
@@ -12042,12 +12066,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B296" s="2">
-        <v>42745.0</v>
+        <v>42745</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>120</v>
@@ -12077,12 +12101,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B297" s="2">
-        <v>42747.0</v>
+        <v>42747</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>19</v>
@@ -12112,12 +12136,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B298" s="2">
-        <v>42749.0</v>
+        <v>42749</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>10</v>
@@ -12147,12 +12171,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B299" s="2">
-        <v>42752.0</v>
+        <v>42752</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>10</v>
@@ -12182,12 +12206,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B300" s="2">
-        <v>42752.0</v>
+        <v>42752</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>19</v>
@@ -12217,12 +12241,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B301" s="2">
-        <v>42752.0</v>
+        <v>42752</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>19</v>
@@ -12252,12 +12276,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B302" s="2">
-        <v>42755.0</v>
+        <v>42755</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>10</v>
@@ -12287,12 +12311,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B303" s="2">
-        <v>42755.0</v>
+        <v>42755</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>10</v>
@@ -12322,12 +12346,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B304" s="2">
-        <v>42756.0</v>
+        <v>42756</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>19</v>
@@ -12357,12 +12381,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B305" s="2">
-        <v>42756.0</v>
+        <v>42756</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>19</v>
@@ -12392,12 +12416,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B306" s="2">
-        <v>42758.0</v>
+        <v>42758</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>10</v>
@@ -12427,12 +12451,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B307" s="2">
-        <v>42759.0</v>
+        <v>42759</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>19</v>
@@ -12462,12 +12486,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B308" s="2">
-        <v>42759.0</v>
+        <v>42759</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>120</v>
@@ -12497,12 +12521,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B309" s="2">
-        <v>42760.0</v>
+        <v>42760</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>10</v>
@@ -12532,12 +12556,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B310" s="2">
-        <v>42762.0</v>
+        <v>42762</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>10</v>
@@ -12567,12 +12591,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B311" s="2">
-        <v>42764.0</v>
+        <v>42764</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>10</v>
@@ -12602,12 +12626,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B312" s="2">
-        <v>42763.0</v>
+        <v>42763</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>10</v>
@@ -12637,12 +12661,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B313" s="2">
-        <v>42766.0</v>
+        <v>42766</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>19</v>
@@ -12672,12 +12696,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B314" s="2">
-        <v>42766.0</v>
+        <v>42766</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>10</v>
@@ -12707,12 +12731,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B315" s="2">
-        <v>42767.0</v>
+        <v>42767</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>120</v>
@@ -12742,12 +12766,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B316" s="2">
-        <v>42770.0</v>
+        <v>42770</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>19</v>
@@ -12777,12 +12801,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B317" s="2">
-        <v>42771.0</v>
+        <v>42771</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>120</v>
@@ -12812,12 +12836,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B318" s="2">
-        <v>42773.0</v>
+        <v>42773</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>10</v>
@@ -12847,12 +12871,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B319" s="2">
-        <v>42773.0</v>
+        <v>42773</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>10</v>
@@ -12882,12 +12906,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B320" s="2">
-        <v>42774.0</v>
+        <v>42774</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>10</v>
@@ -12917,12 +12941,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B321" s="2">
-        <v>42774.0</v>
+        <v>42774</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>19</v>
@@ -12952,12 +12976,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B322" s="2">
-        <v>42774.0</v>
+        <v>42774</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>19</v>
@@ -12987,12 +13011,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B323" s="2">
-        <v>42774.0</v>
+        <v>42774</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>10</v>
@@ -13022,12 +13046,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B324" s="2">
-        <v>42774.0</v>
+        <v>42774</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>10</v>
@@ -13057,12 +13081,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B325" s="2">
-        <v>42775.0</v>
+        <v>42775</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>10</v>
@@ -13092,12 +13116,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B326" s="2">
-        <v>42774.0</v>
+        <v>42774</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>10</v>
@@ -13127,12 +13151,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B327" s="2">
-        <v>42779.0</v>
+        <v>42779</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>19</v>
@@ -13162,12 +13186,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B328" s="2">
-        <v>42779.0</v>
+        <v>42779</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>19</v>
@@ -13197,12 +13221,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="B329" s="2">
-        <v>42779.0</v>
+        <v>42779</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>19</v>
@@ -13232,12 +13256,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B330" s="2">
-        <v>42780.0</v>
+        <v>42780</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>10</v>
@@ -13267,12 +13291,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B331" s="2">
-        <v>42781.0</v>
+        <v>42781</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>120</v>
@@ -13302,12 +13326,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B332" s="2">
-        <v>42782.0</v>
+        <v>42782</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>10</v>
@@ -13337,12 +13361,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B333" s="2">
-        <v>42783.0</v>
+        <v>42783</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>10</v>
@@ -13372,12 +13396,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="B334" s="2">
-        <v>42783.0</v>
+        <v>42783</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>10</v>
@@ -13407,12 +13431,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B335" s="2">
-        <v>42783.0</v>
+        <v>42783</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>10</v>
@@ -13442,12 +13466,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B336" s="2">
-        <v>42789.0</v>
+        <v>42789</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>10</v>
@@ -13477,12 +13501,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="B337" s="2">
-        <v>42789.0</v>
+        <v>42789</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>19</v>
@@ -13512,12 +13536,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B338" s="2">
-        <v>42791.0</v>
+        <v>42791</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>10</v>
@@ -13547,12 +13571,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="B339" s="2">
-        <v>42791.0</v>
+        <v>42791</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>10</v>
@@ -13582,12 +13606,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="B340" s="2">
-        <v>42791.0</v>
+        <v>42791</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>120</v>
@@ -13617,12 +13641,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="B341" s="2">
-        <v>42792.0</v>
+        <v>42792</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>10</v>
@@ -13652,12 +13676,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="B342" s="2">
-        <v>42792.0</v>
+        <v>42792</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>19</v>
@@ -13687,12 +13711,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B343" s="2">
-        <v>42793.0</v>
+        <v>42793</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>10</v>
@@ -13722,12 +13746,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B344" s="2">
-        <v>42793.0</v>
+        <v>42793</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>19</v>
@@ -13757,12 +13781,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="B345" s="2">
-        <v>42795.0</v>
+        <v>42795</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>10</v>
@@ -13792,12 +13816,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="B346" s="2">
-        <v>42796.0</v>
+        <v>42796</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>120</v>
@@ -13827,12 +13851,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="B347" s="2">
-        <v>42796.0</v>
+        <v>42796</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>120</v>
@@ -13862,12 +13886,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B348" s="2">
-        <v>42796.0</v>
+        <v>42796</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>120</v>
@@ -13897,12 +13921,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="B349" s="2">
-        <v>42798.0</v>
+        <v>42798</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>19</v>
@@ -13932,12 +13956,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="B350" s="2">
-        <v>42800.0</v>
+        <v>42800</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>10</v>
@@ -13967,12 +13991,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="B351" s="2">
-        <v>42802.0</v>
+        <v>42802</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>120</v>
@@ -14002,12 +14026,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="B352" s="2">
-        <v>42803.0</v>
+        <v>42803</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>10</v>
@@ -14037,12 +14061,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B353" s="2">
-        <v>42802.0</v>
+        <v>42802</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>10</v>
@@ -14072,12 +14096,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="B354" s="2">
-        <v>42803.0</v>
+        <v>42803</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>19</v>
@@ -14107,12 +14131,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B355" s="2">
-        <v>42804.0</v>
+        <v>42804</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>10</v>
@@ -14142,12 +14166,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="B356" s="2">
-        <v>42809.0</v>
+        <v>42809</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>120</v>
@@ -14177,12 +14201,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="B357" s="2">
-        <v>42809.0</v>
+        <v>42809</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>120</v>
@@ -14212,12 +14236,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B358" s="2">
-        <v>42809.0</v>
+        <v>42809</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>19</v>
@@ -14247,12 +14271,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="B359" s="2">
-        <v>42812.0</v>
+        <v>42812</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>10</v>
@@ -14282,12 +14306,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B360" s="2">
-        <v>42816.0</v>
+        <v>42816</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>10</v>
@@ -14317,12 +14341,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="B361" s="2">
-        <v>42819.0</v>
+        <v>42819</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>10</v>
@@ -14352,12 +14376,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B362" s="2">
-        <v>42819.0</v>
+        <v>42819</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>120</v>
@@ -14387,12 +14411,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B363" s="2">
-        <v>42825.0</v>
+        <v>42825</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>19</v>
@@ -14422,12 +14446,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="B364" s="2">
-        <v>42829.0</v>
+        <v>42829</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>19</v>
@@ -14457,12 +14481,12 @@
         <v>420</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="B365" s="2">
-        <v>42830.0</v>
+        <v>42830</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>19</v>
@@ -14492,12 +14516,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B366" s="2">
-        <v>42832.0</v>
+        <v>42832</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>19</v>
@@ -14527,12 +14551,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="B367" s="2">
-        <v>42829.0</v>
+        <v>42829</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>120</v>
@@ -14562,12 +14586,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B368" s="2">
-        <v>42831.0</v>
+        <v>42831</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>10</v>
@@ -14597,12 +14621,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="B369" s="2">
-        <v>42832.0</v>
+        <v>42832</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>10</v>
@@ -14632,12 +14656,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="B370" s="2">
-        <v>42835.0</v>
+        <v>42835</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>19</v>
@@ -14667,12 +14691,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="B371" s="2">
-        <v>42833.0</v>
+        <v>42833</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>120</v>
@@ -14702,12 +14726,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="B372" s="2">
-        <v>42836.0</v>
+        <v>42836</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>10</v>
@@ -14737,12 +14761,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B373" s="2">
-        <v>42836.0</v>
+        <v>42836</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>10</v>
@@ -14772,12 +14796,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="B374" s="2">
-        <v>42836.0</v>
+        <v>42836</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>19</v>
@@ -14807,12 +14831,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="B375" s="2">
-        <v>42838.0</v>
+        <v>42838</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>10</v>
@@ -14842,12 +14866,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="B376" s="2">
-        <v>42837.0</v>
+        <v>42837</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>120</v>
@@ -14877,12 +14901,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B377" s="2">
-        <v>42848.0</v>
+        <v>42848</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>10</v>
@@ -14912,12 +14936,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B378" s="2">
-        <v>42844.0</v>
+        <v>42844</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>120</v>
@@ -14947,12 +14971,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="B379" s="2">
-        <v>42848.0</v>
+        <v>42848</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>10</v>
@@ -14982,12 +15006,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B380" s="2">
-        <v>42850.0</v>
+        <v>42850</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>120</v>
@@ -15017,12 +15041,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="B381" s="2">
-        <v>42850.0</v>
+        <v>42850</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>19</v>
@@ -15052,12 +15076,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="B382" s="2">
-        <v>42850.0</v>
+        <v>42850</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>10</v>
@@ -15087,12 +15111,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B383" s="2">
-        <v>42849.0</v>
+        <v>42849</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>10</v>
@@ -15122,12 +15146,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="B384" s="2">
-        <v>42853.0</v>
+        <v>42853</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>19</v>
@@ -15157,12 +15181,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="B385" s="2">
-        <v>42854.0</v>
+        <v>42854</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>19</v>
@@ -15192,12 +15216,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="B386" s="2">
-        <v>42855.0</v>
+        <v>42855</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>19</v>
@@ -15227,12 +15251,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="B387" s="2">
-        <v>42860.0</v>
+        <v>42860</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>19</v>
@@ -15262,12 +15286,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B388" s="2">
-        <v>42861.0</v>
+        <v>42861</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>10</v>
@@ -15297,12 +15321,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="B389" s="2">
-        <v>42861.0</v>
+        <v>42861</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>19</v>
@@ -15332,12 +15356,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="B390" s="2">
-        <v>42861.0</v>
+        <v>42861</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>19</v>
@@ -15367,12 +15391,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="B391" s="2">
-        <v>42865.0</v>
+        <v>42865</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>10</v>
@@ -15402,12 +15426,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="B392" s="2">
-        <v>42871.0</v>
+        <v>42871</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>19</v>
@@ -15437,12 +15461,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B393" s="2">
-        <v>42871.0</v>
+        <v>42871</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>10</v>
@@ -15472,12 +15496,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="B394" s="2">
-        <v>42871.0</v>
+        <v>42871</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>19</v>
@@ -15507,12 +15531,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="B395" s="2">
-        <v>42872.0</v>
+        <v>42872</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>19</v>
@@ -15542,12 +15566,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="B396" s="2">
-        <v>42873.0</v>
+        <v>42873</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>10</v>
@@ -15577,12 +15601,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="B397" s="2">
-        <v>42874.0</v>
+        <v>42874</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>10</v>
@@ -15612,12 +15636,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B398" s="2">
-        <v>42878.0</v>
+        <v>42878</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>10</v>
@@ -15647,12 +15671,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="B399" s="2">
-        <v>42878.0</v>
+        <v>42878</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>10</v>
@@ -15682,12 +15706,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="B400" s="2">
-        <v>42878.0</v>
+        <v>42878</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>10</v>
@@ -15717,12 +15741,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="B401" s="2">
-        <v>42885.0</v>
+        <v>42885</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>19</v>
@@ -15752,12 +15776,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B402" s="2">
-        <v>42890.0</v>
+        <v>42890</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>19</v>
@@ -15787,12 +15811,12 @@
         <v>458</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B403" s="2">
-        <v>42895.0</v>
+        <v>42895</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>10</v>
@@ -15822,12 +15846,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="B404" s="2">
-        <v>42895.0</v>
+        <v>42895</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>10</v>
@@ -15857,12 +15881,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="B405" s="2">
-        <v>42897.0</v>
+        <v>42897</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>10</v>
@@ -15892,12 +15916,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="B406" s="2">
-        <v>42897.0</v>
+        <v>42897</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>10</v>
@@ -15927,12 +15951,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="B407" s="2">
-        <v>42897.0</v>
+        <v>42897</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>10</v>
@@ -15962,12 +15986,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B408" s="2">
-        <v>42897.0</v>
+        <v>42897</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>10</v>
@@ -15997,12 +16021,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="B409" s="2">
-        <v>42900.0</v>
+        <v>42900</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>19</v>
@@ -16032,12 +16056,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="B410" s="2">
-        <v>42901.0</v>
+        <v>42901</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>10</v>
@@ -16067,12 +16091,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="B411" s="2">
-        <v>42903.0</v>
+        <v>42903</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>10</v>
@@ -16102,12 +16126,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>424.0</v>
+        <v>424</v>
       </c>
       <c r="B412" s="2">
-        <v>42904.0</v>
+        <v>42904</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>10</v>
@@ -16137,12 +16161,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B413" s="2">
-        <v>42910.0</v>
+        <v>42910</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>10</v>
@@ -16172,12 +16196,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B414" s="2">
-        <v>42906.0</v>
+        <v>42906</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>10</v>
@@ -16207,12 +16231,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="B415" s="2">
-        <v>42906.0</v>
+        <v>42906</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>10</v>
@@ -16242,12 +16266,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="B416" s="2">
-        <v>42910.0</v>
+        <v>42910</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>10</v>
@@ -16277,12 +16301,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="B417" s="2">
-        <v>42909.0</v>
+        <v>42909</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>19</v>
@@ -16312,12 +16336,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B418" s="2">
-        <v>42905.0</v>
+        <v>42905</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>120</v>
@@ -16347,12 +16371,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="B419" s="2">
-        <v>42908.0</v>
+        <v>42908</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>120</v>
@@ -16382,12 +16406,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B420" s="2">
-        <v>42908.0</v>
+        <v>42908</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>120</v>
@@ -16417,12 +16441,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="B421" s="2">
-        <v>42915.0</v>
+        <v>42915</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>19</v>
@@ -16452,12 +16476,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="B422" s="2">
-        <v>42920.0</v>
+        <v>42920</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>10</v>
@@ -16487,12 +16511,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B423" s="2">
-        <v>42920.0</v>
+        <v>42920</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>10</v>
@@ -16522,12 +16546,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="B424" s="2">
-        <v>42921.0</v>
+        <v>42921</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>19</v>
@@ -16557,12 +16581,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="B425" s="2">
-        <v>42922.0</v>
+        <v>42922</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>19</v>
@@ -16592,12 +16616,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B426" s="2">
-        <v>42925.0</v>
+        <v>42925</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>10</v>
@@ -16628,6 +16652,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:K426" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>